--- a/HHM-Support.xlsx
+++ b/HHM-Support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\git\hhm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1042A4CC-65DD-473D-80F7-6009ED62F1C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4BEDEF-B879-4AF0-9886-CA4C1C4522A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1E86B32A-A4E6-46A4-A9E6-3A88B75D608F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>HHM PURE SUPPORT HOURS</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Hrs</t>
+  </si>
+  <si>
+    <t>Landing page - restarted</t>
   </si>
 </sst>
 </file>
@@ -124,6 +127,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -139,7 +143,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,53 +462,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF495165-D3BC-4AE1-A195-8148F4B0F8A3}">
-  <dimension ref="F3:K14"/>
+  <dimension ref="F3:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G15" sqref="G14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="7" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F8" s="4"/>
@@ -516,24 +519,24 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
         <v>6</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="5">
         <v>3</v>
       </c>
@@ -545,11 +548,11 @@
       <c r="F12" s="3">
         <v>7</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="5">
         <v>3</v>
       </c>
@@ -561,12 +564,12 @@
       <c r="F13">
         <v>9</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="11">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6">
         <v>1.3</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -577,11 +580,11 @@
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="5">
         <v>4</v>
       </c>
@@ -589,8 +592,25 @@
         <v>6</v>
       </c>
     </row>
+    <row r="15" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="5">
+        <v>4</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G12:I12"/>

--- a/HHM-Support.xlsx
+++ b/HHM-Support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\git\hhm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4BEDEF-B879-4AF0-9886-CA4C1C4522A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F69625D-4BE8-4253-B062-C5B536CB1F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1E86B32A-A4E6-46A4-A9E6-3A88B75D608F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>HHM PURE SUPPORT HOURS</t>
   </si>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF495165-D3BC-4AE1-A195-8148F4B0F8A3}">
-  <dimension ref="F3:K15"/>
+  <dimension ref="F3:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G14:I15"/>
+      <selection activeCell="G16" sqref="G16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,17 +608,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="5">
+        <v>4</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="F3:K5"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="F9:K9"/>
-    <mergeCell ref="F3:K5"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/HHM-Support.xlsx
+++ b/HHM-Support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\git\hhm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F69625D-4BE8-4253-B062-C5B536CB1F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C27FE7-176D-4FE1-AAA3-F8267742D3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1E86B32A-A4E6-46A4-A9E6-3A88B75D608F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>HHM PURE SUPPORT HOURS</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Landing page - restarted</t>
+  </si>
+  <si>
+    <t>Landing page - completed</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -128,12 +131,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -143,6 +140,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,53 +466,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF495165-D3BC-4AE1-A195-8148F4B0F8A3}">
-  <dimension ref="F3:K16"/>
+  <dimension ref="F3:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:I16"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="7" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F8" s="4"/>
@@ -519,25 +523,25 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
         <v>6</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="5">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="12">
         <v>3</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -548,12 +552,12 @@
       <c r="F12" s="3">
         <v>7</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="12">
         <v>3</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -564,11 +568,11 @@
       <c r="F13">
         <v>9</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="6">
         <v>1.3</v>
       </c>
@@ -580,12 +584,12 @@
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="5">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="12">
         <v>4</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -596,12 +600,12 @@
       <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="5">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="12">
         <v>4</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -612,20 +616,37 @@
       <c r="F16">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="5">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="12">
         <v>4</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="F3:K5"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:K7"/>

--- a/HHM-Support.xlsx
+++ b/HHM-Support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\git\hhm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C27FE7-176D-4FE1-AAA3-F8267742D3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D66D5C9-0E55-49B5-8A63-2BD0C0C9535C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1E86B32A-A4E6-46A4-A9E6-3A88B75D608F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>HHM PURE SUPPORT HOURS</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Landing page - completed</t>
+  </si>
+  <si>
+    <t>Changes in website</t>
+  </si>
+  <si>
+    <t>Product page changes</t>
   </si>
 </sst>
 </file>
@@ -131,6 +137,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -140,13 +150,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,53 +472,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF495165-D3BC-4AE1-A195-8148F4B0F8A3}">
-  <dimension ref="F3:K17"/>
+  <dimension ref="F3:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G19" sqref="G19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="7" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F8" s="4"/>
@@ -523,25 +529,25 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
         <v>6</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="12">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7">
         <v>3</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -552,12 +558,12 @@
       <c r="F12" s="3">
         <v>7</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="12">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7">
         <v>3</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -568,11 +574,11 @@
       <c r="F13">
         <v>9</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="6">
         <v>1.3</v>
       </c>
@@ -584,12 +590,12 @@
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="7">
         <v>4</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -600,12 +606,12 @@
       <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7">
         <v>4</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -616,12 +622,12 @@
       <c r="F16">
         <v>12</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="12">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7">
         <v>4</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -632,20 +638,54 @@
       <c r="F17">
         <v>13</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="12">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7">
         <v>1.3</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="F3:K5"/>
     <mergeCell ref="G7:I7"/>

--- a/HHM-Support.xlsx
+++ b/HHM-Support.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\git\hhm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D66D5C9-0E55-49B5-8A63-2BD0C0C9535C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D236099-010E-41F9-A728-6E90AE432960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1E86B32A-A4E6-46A4-A9E6-3A88B75D608F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>HHM PURE SUPPORT HOURS</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Product page changes</t>
+  </si>
+  <si>
+    <t>Footer and product</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF495165-D3BC-4AE1-A195-8148F4B0F8A3}">
-  <dimension ref="F3:K19"/>
+  <dimension ref="F3:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:I19"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,8 +685,25 @@
         <v>6</v>
       </c>
     </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="G20:I20"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G17:I17"/>

--- a/HHM-Support.xlsx
+++ b/HHM-Support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\git\hhm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D236099-010E-41F9-A728-6E90AE432960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CE081D-4F0B-45FF-B2E0-2B0964E49287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1E86B32A-A4E6-46A4-A9E6-3A88B75D608F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>HHM PURE SUPPORT HOURS</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Footer and product</t>
+  </si>
+  <si>
+    <t>Screen compatibility</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -128,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -156,6 +162,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF495165-D3BC-4AE1-A195-8148F4B0F8A3}">
-  <dimension ref="F3:K20"/>
+  <dimension ref="F3:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,8 +712,41 @@
         <v>6</v>
       </c>
     </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="14"/>
+      <c r="G23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="15">
+        <f>SUM(J11:J22)</f>
+        <v>26.500000000000004</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>

--- a/HHM-Support.xlsx
+++ b/HHM-Support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\git\hhm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CE081D-4F0B-45FF-B2E0-2B0964E49287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB3CDE-6FD1-4ACE-871E-6ECEBE577F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1E86B32A-A4E6-46A4-A9E6-3A88B75D608F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>HHM PURE SUPPORT HOURS</t>
   </si>
@@ -73,6 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[h]:mm"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,9 +148,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -162,11 +170,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,53 +491,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF495165-D3BC-4AE1-A195-8148F4B0F8A3}">
-  <dimension ref="F3:K23"/>
+  <dimension ref="F3:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="7" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F8" s="4"/>
@@ -543,14 +551,14 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
@@ -561,8 +569,8 @@
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="7">
-        <v>3</v>
+      <c r="J11" s="14">
+        <v>0.125</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>6</v>
@@ -577,8 +585,8 @@
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="7">
-        <v>3</v>
+      <c r="J12" s="14">
+        <v>0.125</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>6</v>
@@ -593,8 +601,8 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="6">
-        <v>1.3</v>
+      <c r="J13" s="14">
+        <v>6.25E-2</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>6</v>
@@ -609,8 +617,8 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="7">
-        <v>4</v>
+      <c r="J14" s="14">
+        <v>0.16666666666666666</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>6</v>
@@ -625,8 +633,8 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="7">
-        <v>4</v>
+      <c r="J15" s="14">
+        <v>0.16666666666666666</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>6</v>
@@ -641,8 +649,8 @@
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="7">
-        <v>4</v>
+      <c r="J16" s="14">
+        <v>0.16666666666666666</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>6</v>
@@ -657,8 +665,8 @@
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="7">
-        <v>1.3</v>
+      <c r="J17" s="14">
+        <v>6.25E-2</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>6</v>
@@ -673,8 +681,8 @@
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="7">
-        <v>1</v>
+      <c r="J18" s="14">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>6</v>
@@ -689,8 +697,8 @@
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="7">
-        <v>2.2999999999999998</v>
+      <c r="J19" s="14">
+        <v>0.10416666666666667</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>6</v>
@@ -705,8 +713,8 @@
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="7">
-        <v>0.3</v>
+      <c r="J20" s="14">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>6</v>
@@ -721,35 +729,53 @@
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="7">
-        <v>2.2999999999999998</v>
+      <c r="J21" s="14">
+        <v>0.10416666666666667</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="14"/>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F25" s="7"/>
+      <c r="G25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="15">
-        <f>SUM(J11:J22)</f>
-        <v>26.500000000000004</v>
-      </c>
-      <c r="K23" s="14" t="s">
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="15">
+        <f>SUM(J11:J24)</f>
+        <v>1.1875</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
+  <mergeCells count="17">
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="F3:K5"/>
     <mergeCell ref="G7:I7"/>
@@ -761,6 +787,12 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="F9:K9"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/HHM-Support.xlsx
+++ b/HHM-Support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\git\hhm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB3CDE-6FD1-4ACE-871E-6ECEBE577F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A7756A-E43D-4777-AE8B-00B7448A4CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1E86B32A-A4E6-46A4-A9E6-3A88B75D608F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>HHM PURE SUPPORT HOURS</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Ccavenue</t>
+  </si>
+  <si>
+    <t>Ccavenue completed</t>
   </si>
 </sst>
 </file>
@@ -74,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[h]:mm"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -148,10 +154,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -170,8 +178,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF495165-D3BC-4AE1-A195-8148F4B0F8A3}">
-  <dimension ref="F3:K25"/>
+  <dimension ref="F3:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,44 +509,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="7" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F8" s="4"/>
@@ -551,25 +557,25 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
         <v>6</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="14">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8">
         <v>0.125</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -580,12 +586,12 @@
       <c r="F12" s="3">
         <v>7</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="14">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8">
         <v>0.125</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -596,12 +602,12 @@
       <c r="F13">
         <v>9</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="14">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8">
         <v>6.25E-2</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -612,12 +618,12 @@
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="14">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="8">
         <v>0.16666666666666666</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -628,12 +634,12 @@
       <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="14">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8">
         <v>0.16666666666666666</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -644,12 +650,12 @@
       <c r="F16">
         <v>12</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="14">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8">
         <v>0.16666666666666666</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -660,12 +666,12 @@
       <c r="F17">
         <v>13</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="14">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8">
         <v>6.25E-2</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -676,12 +682,12 @@
       <c r="F18">
         <v>15</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="14">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -692,12 +698,12 @@
       <c r="F19">
         <v>16</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="14">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="8">
         <v>0.10416666666666667</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -708,12 +714,12 @@
       <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="14">
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -724,12 +730,12 @@
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="14">
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="8">
         <v>0.10416666666666667</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -740,12 +746,12 @@
       <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="14">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="K22" s="5" t="s">
@@ -753,29 +759,77 @@
       </c>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="5"/>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="8">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>26</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F25" s="7"/>
-      <c r="G25" s="9" t="s">
+      <c r="F25">
+        <v>27</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="6"/>
+      <c r="G28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="15">
-        <f>SUM(J11:J24)</f>
-        <v>1.1875</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="9">
+        <f>SUM(J11:J27)</f>
+        <v>1.5624999999999998</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="F3:K5"/>
     <mergeCell ref="G7:I7"/>
@@ -788,11 +842,14 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="F9:K9"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/HHM-Support.xlsx
+++ b/HHM-Support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\git\hhm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A7756A-E43D-4777-AE8B-00B7448A4CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BAB22C-DACD-436E-9E5A-E7BD0E2E530A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1E86B32A-A4E6-46A4-A9E6-3A88B75D608F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>HHM PURE SUPPORT HOURS</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Ccavenue completed</t>
+  </si>
+  <si>
+    <t>Landing bugs</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -155,15 +158,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -176,6 +173,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,44 +509,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="7" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="14"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F8" s="4"/>
@@ -557,25 +557,25 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
         <v>6</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="8">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="7">
         <v>0.125</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -586,12 +586,12 @@
       <c r="F12" s="3">
         <v>7</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="8">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="7">
         <v>0.125</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -602,12 +602,12 @@
       <c r="F13">
         <v>9</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="8">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="7">
         <v>6.25E-2</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -618,12 +618,12 @@
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="8">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="7">
         <v>0.16666666666666666</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -634,12 +634,12 @@
       <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="8">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="7">
         <v>0.16666666666666666</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -650,12 +650,12 @@
       <c r="F16">
         <v>12</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="8">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="7">
         <v>0.16666666666666666</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -666,12 +666,12 @@
       <c r="F17">
         <v>13</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="8">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="7">
         <v>6.25E-2</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -682,12 +682,12 @@
       <c r="F18">
         <v>15</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="8">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -698,12 +698,12 @@
       <c r="F19">
         <v>16</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="8">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="7">
         <v>0.10416666666666667</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -714,12 +714,12 @@
       <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="8">
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -730,12 +730,12 @@
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="8">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="7">
         <v>0.10416666666666667</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -746,12 +746,12 @@
       <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="8">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="K22" s="5" t="s">
@@ -762,12 +762,12 @@
       <c r="F23">
         <v>25</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="8">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -778,12 +778,12 @@
       <c r="F24">
         <v>26</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="8">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="7">
         <v>0.20833333333333334</v>
       </c>
       <c r="K24" s="5" t="s">
@@ -794,12 +794,12 @@
       <c r="F25">
         <v>27</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="8">
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="K25" s="5" t="s">
@@ -807,29 +807,48 @@
       </c>
     </row>
     <row r="26" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="5"/>
+      <c r="F26">
+        <v>29</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F28" s="6"/>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="9">
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="8">
         <f>SUM(J11:J27)</f>
-        <v>1.5624999999999998</v>
+        <v>1.645833333333333</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="F3:K5"/>
     <mergeCell ref="G7:I7"/>
@@ -841,15 +860,6 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="F9:K9"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/HHM-Support.xlsx
+++ b/HHM-Support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\git\hhm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BAB22C-DACD-436E-9E5A-E7BD0E2E530A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE81910-6A56-4622-B076-2FCA7B9DE7C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1E86B32A-A4E6-46A4-A9E6-3A88B75D608F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>HHM PURE SUPPORT HOURS</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Landing bugs</t>
+  </si>
+  <si>
+    <t>October, 2020</t>
+  </si>
+  <si>
+    <t>Mobile responsive</t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -160,6 +166,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF495165-D3BC-4AE1-A195-8148F4B0F8A3}">
-  <dimension ref="F3:K28"/>
+  <dimension ref="F3:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,44 +527,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="7" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F8" s="4"/>
@@ -557,24 +575,24 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
         <v>6</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="7">
         <v>0.125</v>
       </c>
@@ -586,11 +604,11 @@
       <c r="F12" s="3">
         <v>7</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="7">
         <v>0.125</v>
       </c>
@@ -602,11 +620,11 @@
       <c r="F13">
         <v>9</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="7">
         <v>6.25E-2</v>
       </c>
@@ -618,11 +636,11 @@
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="7">
         <v>0.16666666666666666</v>
       </c>
@@ -634,11 +652,11 @@
       <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="7">
         <v>0.16666666666666666</v>
       </c>
@@ -650,11 +668,11 @@
       <c r="F16">
         <v>12</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="7">
         <v>0.16666666666666666</v>
       </c>
@@ -666,11 +684,11 @@
       <c r="F17">
         <v>13</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="7">
         <v>6.25E-2</v>
       </c>
@@ -682,11 +700,11 @@
       <c r="F18">
         <v>15</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -698,11 +716,11 @@
       <c r="F19">
         <v>16</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="7">
         <v>0.10416666666666667</v>
       </c>
@@ -714,11 +732,11 @@
       <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -730,11 +748,11 @@
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="7">
         <v>0.10416666666666667</v>
       </c>
@@ -746,11 +764,11 @@
       <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -762,11 +780,11 @@
       <c r="F23">
         <v>25</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -778,11 +796,11 @@
       <c r="F24">
         <v>26</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="7">
         <v>0.20833333333333334</v>
       </c>
@@ -794,11 +812,11 @@
       <c r="F25">
         <v>27</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -810,11 +828,11 @@
       <c r="F26">
         <v>29</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -822,25 +840,134 @@
         <v>6</v>
       </c>
     </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="28" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="6"/>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F29" s="6"/>
+      <c r="G29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="8">
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="8">
         <f>SUM(J11:J27)</f>
-        <v>1.645833333333333</v>
-      </c>
-      <c r="K28" s="6" t="s">
+        <v>1.7291666666666663</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="6:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="6"/>
+      <c r="G38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="8">
+        <f>SUM(J34:J37)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="26">
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G35:I35"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>

--- a/HHM-Support.xlsx
+++ b/HHM-Support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\git\hhm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE81910-6A56-4622-B076-2FCA7B9DE7C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A509E52-0EA5-4136-B5A5-0BBFCF1B911B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1E86B32A-A4E6-46A4-A9E6-3A88B75D608F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>HHM PURE SUPPORT HOURS</t>
   </si>
@@ -178,7 +178,13 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -188,12 +194,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -518,7 +518,7 @@
   <dimension ref="F3:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,44 +527,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="7" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="18"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F8" s="4"/>
@@ -575,24 +575,24 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
         <v>6</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="7">
         <v>0.125</v>
       </c>
@@ -604,11 +604,11 @@
       <c r="F12" s="3">
         <v>7</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="7">
         <v>0.125</v>
       </c>
@@ -620,11 +620,11 @@
       <c r="F13">
         <v>9</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="7">
         <v>6.25E-2</v>
       </c>
@@ -636,11 +636,11 @@
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="7">
         <v>0.16666666666666666</v>
       </c>
@@ -652,11 +652,11 @@
       <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="7">
         <v>0.16666666666666666</v>
       </c>
@@ -668,11 +668,11 @@
       <c r="F16">
         <v>12</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="7">
         <v>0.16666666666666666</v>
       </c>
@@ -684,11 +684,11 @@
       <c r="F17">
         <v>13</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="7">
         <v>6.25E-2</v>
       </c>
@@ -700,11 +700,11 @@
       <c r="F18">
         <v>15</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -716,11 +716,11 @@
       <c r="F19">
         <v>16</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="7">
         <v>0.10416666666666667</v>
       </c>
@@ -732,11 +732,11 @@
       <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -748,11 +748,11 @@
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="7">
         <v>0.10416666666666667</v>
       </c>
@@ -764,11 +764,11 @@
       <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -780,11 +780,11 @@
       <c r="F23">
         <v>25</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -796,11 +796,11 @@
       <c r="F24">
         <v>26</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="7">
         <v>0.20833333333333334</v>
       </c>
@@ -812,11 +812,11 @@
       <c r="F25">
         <v>27</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
       <c r="J25" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -828,11 +828,11 @@
       <c r="F26">
         <v>29</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -844,11 +844,11 @@
       <c r="F27">
         <v>30</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -865,11 +865,11 @@
     </row>
     <row r="29" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F29" s="6"/>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="8">
         <f>SUM(J11:J27)</f>
         <v>1.7291666666666663</v>
@@ -895,14 +895,14 @@
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F33" s="10"/>
@@ -916,11 +916,11 @@
       <c r="F34">
         <v>2</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
       <c r="J34" s="7">
         <v>0.25</v>
       </c>
@@ -932,11 +932,11 @@
       <c r="F35">
         <v>3</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
       <c r="J35" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -944,38 +944,39 @@
         <v>6</v>
       </c>
     </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="38" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F38" s="6"/>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="8">
         <f>SUM(J34:J37)</f>
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+  <mergeCells count="27">
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="F3:K5"/>
     <mergeCell ref="G7:I7"/>
@@ -987,6 +988,22 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="F9:K9"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/HHM-Support.xlsx
+++ b/HHM-Support.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\git\hhm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A509E52-0EA5-4136-B5A5-0BBFCF1B911B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C819018-E39D-48B5-81FD-EDFFF317ABF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1E86B32A-A4E6-46A4-A9E6-3A88B75D608F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>HHM PURE SUPPORT HOURS</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Mobile responsive</t>
+  </si>
+  <si>
+    <t>Video background</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -178,22 +181,25 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -515,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF495165-D3BC-4AE1-A195-8148F4B0F8A3}">
-  <dimension ref="F3:K38"/>
+  <dimension ref="F3:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,44 +533,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="7" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F8" s="4"/>
@@ -575,14 +581,14 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
@@ -865,11 +871,11 @@
     </row>
     <row r="29" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F29" s="6"/>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="8">
         <f>SUM(J11:J27)</f>
         <v>1.7291666666666663</v>
@@ -895,14 +901,14 @@
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="6:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F33" s="10"/>
@@ -960,23 +966,63 @@
         <v>6</v>
       </c>
     </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="38" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F38" s="6"/>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F40" s="6"/>
+      <c r="G40" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="8">
-        <f>SUM(J34:J37)</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="K38" s="6" t="s">
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="8">
+        <f>SUM(J34:J39)</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="F3:K5"/>
     <mergeCell ref="G7:I7"/>
@@ -988,22 +1034,6 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="F9:K9"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/HHM-Support.xlsx
+++ b/HHM-Support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\git\hhm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C819018-E39D-48B5-81FD-EDFFF317ABF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27869F44-01E8-446E-95F9-2BA42817A6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1E86B32A-A4E6-46A4-A9E6-3A88B75D608F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>HHM PURE SUPPORT HOURS</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Video background</t>
+  </si>
+  <si>
+    <t>Video background/screnshot</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF495165-D3BC-4AE1-A195-8148F4B0F8A3}">
-  <dimension ref="F3:K40"/>
+  <dimension ref="F3:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,43 +979,67 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="5"/>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="5"/>
     </row>
     <row r="40" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F40" s="6"/>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F42" s="6"/>
+      <c r="G42" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="8">
-        <f>SUM(J34:J39)</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="K40" s="6" t="s">
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="8">
+        <f>SUM(J34:J41)</f>
+        <v>0.75</v>
+      </c>
+      <c r="K42" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="F32:K32"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="G20:I20"/>
